--- a/江西低温.xlsx
+++ b/江西低温.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mr.CK\In Birming\PhD\Research material\Data sources\Data collection\Environmental data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mr.CK\In Birming\PhD\Chapter 1\Python Repository\Data imput\Environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8C2EE7B3-3753-4694-8535-11A936CDD175}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{844B696C-AE64-42A2-82D7-EA679AC80EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{678B9268-3ED9-42F1-BBB2-C64F6460BF8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
+    <t>江西</t>
+  </si>
+  <si>
     <t>南昌府</t>
   </si>
   <si>
@@ -310,22 +323,19 @@
     <t>宁州</t>
   </si>
   <si>
+    <t>宜丰</t>
+  </si>
+  <si>
+    <t>庐山</t>
+  </si>
+  <si>
+    <t>横峰</t>
+  </si>
+  <si>
+    <t>黎川</t>
+  </si>
+  <si>
     <t>定南县</t>
-  </si>
-  <si>
-    <t>江西</t>
-  </si>
-  <si>
-    <t>宜丰</t>
-  </si>
-  <si>
-    <t>庐山</t>
-  </si>
-  <si>
-    <t>横峰</t>
-  </si>
-  <si>
-    <t>黎川</t>
   </si>
 </sst>
 </file>
@@ -333,14 +343,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,10 +391,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -425,7 +434,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -437,7 +446,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -451,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -484,9 +493,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -519,6 +545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -661,775 +704,777 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CS551"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63B22BA-95E3-41EE-A13E-DB5C4521EA4E}">
+  <dimension ref="A1:CS549"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B539" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L539" sqref="L539"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+      <c r="BQ1" s="2"/>
+      <c r="BR1" s="2"/>
+      <c r="BS1" s="2"/>
+      <c r="BT1" s="2"/>
+      <c r="BU1" s="2"/>
+      <c r="BV1" s="2"/>
+      <c r="BW1" s="2"/>
+      <c r="BX1" s="2"/>
+      <c r="BY1" s="2"/>
+      <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
+      <c r="CB1" s="2"/>
+      <c r="CC1" s="2"/>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CL1" s="2"/>
+      <c r="CM1" s="2"/>
+      <c r="CN1" s="2"/>
+      <c r="CO1" s="2"/>
+      <c r="CP1" s="2"/>
+      <c r="CQ1" s="2"/>
+      <c r="CR1" s="2"/>
+      <c r="CS1" s="2"/>
+    </row>
+    <row r="2" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CL2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="2"/>
+      <c r="CO2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="CP2" s="2"/>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="2"/>
+      <c r="CS2" s="2"/>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="CA3" s="2"/>
+      <c r="CB3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="CK3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="CL3" s="2"/>
+      <c r="CM3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO3" s="2"/>
+      <c r="CP3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="3"/>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="3"/>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="3"/>
-      <c r="CP1" s="3"/>
-      <c r="CQ1" s="3"/>
-      <c r="CR1" s="3"/>
-      <c r="CS1" s="3"/>
-    </row>
-    <row r="2" spans="1:97">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3"/>
-      <c r="BU2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3"/>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3"/>
-      <c r="CO2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3"/>
-    </row>
-    <row r="3" spans="1:97">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="BK3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BO3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="BZ3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="CC3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="CD3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="CE3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="CF3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="CH3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="CI3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="CJ3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="CK3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="CL3" s="3"/>
-      <c r="CM3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO3" s="3"/>
-      <c r="CP3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:97">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="3"/>
-      <c r="CL4" s="3"/>
-      <c r="CM4" s="3"/>
-      <c r="CN4" s="3"/>
-      <c r="CO4" s="3"/>
-      <c r="CP4" s="3"/>
-      <c r="CQ4" s="3"/>
-      <c r="CR4" s="3"/>
-      <c r="CS4" s="3"/>
-    </row>
-    <row r="5" spans="1:97">
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="2"/>
+      <c r="CS4" s="2"/>
+    </row>
+    <row r="5" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1368</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1369</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1370</v>
       </c>
     </row>
-    <row r="8" spans="1:97">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1371</v>
       </c>
     </row>
-    <row r="9" spans="1:97">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1372</v>
       </c>
     </row>
-    <row r="10" spans="1:97">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1373</v>
       </c>
     </row>
-    <row r="11" spans="1:97">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1374</v>
       </c>
     </row>
-    <row r="12" spans="1:97">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1375</v>
       </c>
     </row>
-    <row r="13" spans="1:97">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1376</v>
       </c>
     </row>
-    <row r="14" spans="1:97">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1377</v>
       </c>
     </row>
-    <row r="15" spans="1:97">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1378</v>
       </c>
     </row>
-    <row r="16" spans="1:97">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1379</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1380</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1381</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1382</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1383</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1384</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1385</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1386</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1387</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1388</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1389</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1390</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1391</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1392</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1393</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1394</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1395</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1396</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1397</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1398</v>
       </c>
@@ -1440,267 +1485,267 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1399</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1400</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1401</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1402</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1403</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1404</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1405</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1406</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1407</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1408</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1409</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1410</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1411</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1412</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1413</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1414</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1415</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1416</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1417</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1418</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1419</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1420</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1421</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1422</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1423</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1424</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1425</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1426</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1427</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1428</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1429</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1430</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1431</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1432</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1433</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1434</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1435</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1436</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1437</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1438</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1439</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1440</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1441</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1442</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1443</v>
       </c>
     </row>
-    <row r="81" spans="1:77">
+    <row r="81" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1444</v>
       </c>
     </row>
-    <row r="82" spans="1:77">
+    <row r="82" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1445</v>
       </c>
     </row>
-    <row r="83" spans="1:77">
+    <row r="83" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1446</v>
       </c>
     </row>
-    <row r="84" spans="1:77">
+    <row r="84" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1447</v>
       </c>
     </row>
-    <row r="85" spans="1:77">
+    <row r="85" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1448</v>
       </c>
     </row>
-    <row r="86" spans="1:77">
+    <row r="86" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1449</v>
       </c>
     </row>
-    <row r="87" spans="1:77">
+    <row r="87" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1450</v>
       </c>
     </row>
-    <row r="88" spans="1:77">
+    <row r="88" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1451</v>
       </c>
@@ -1708,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:77">
+    <row r="89" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1452</v>
       </c>
@@ -1725,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:77">
+    <row r="90" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1453</v>
       </c>
@@ -1745,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:77">
+    <row r="91" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1454</v>
       </c>
@@ -1762,62 +1807,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:77">
+    <row r="92" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1455</v>
       </c>
     </row>
-    <row r="93" spans="1:77">
+    <row r="93" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1456</v>
       </c>
     </row>
-    <row r="94" spans="1:77">
+    <row r="94" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1457</v>
       </c>
     </row>
-    <row r="95" spans="1:77">
+    <row r="95" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1458</v>
       </c>
     </row>
-    <row r="96" spans="1:77">
+    <row r="96" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1459</v>
       </c>
     </row>
-    <row r="97" spans="1:95">
+    <row r="97" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1460</v>
       </c>
     </row>
-    <row r="98" spans="1:95">
+    <row r="98" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1461</v>
       </c>
     </row>
-    <row r="99" spans="1:95">
+    <row r="99" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1462</v>
       </c>
     </row>
-    <row r="100" spans="1:95">
+    <row r="100" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1463</v>
       </c>
     </row>
-    <row r="101" spans="1:95">
+    <row r="101" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1464</v>
       </c>
     </row>
-    <row r="102" spans="1:95">
+    <row r="102" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1465</v>
       </c>
     </row>
-    <row r="103" spans="1:95">
+    <row r="103" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1466</v>
       </c>
@@ -1825,12 +1870,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:95">
+    <row r="104" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1467</v>
       </c>
     </row>
-    <row r="105" spans="1:95">
+    <row r="105" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1468</v>
       </c>
@@ -1838,17 +1883,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:95">
+    <row r="106" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1469</v>
       </c>
     </row>
-    <row r="107" spans="1:95">
+    <row r="107" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1470</v>
       </c>
     </row>
-    <row r="108" spans="1:95">
+    <row r="108" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1471</v>
       </c>
@@ -1859,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:95">
+    <row r="109" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1472</v>
       </c>
@@ -1867,27 +1912,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:95">
+    <row r="110" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1473</v>
       </c>
     </row>
-    <row r="111" spans="1:95">
+    <row r="111" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1474</v>
       </c>
     </row>
-    <row r="112" spans="1:95">
+    <row r="112" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1475</v>
       </c>
     </row>
-    <row r="113" spans="1:25">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1476</v>
       </c>
     </row>
-    <row r="114" spans="1:25">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1477</v>
       </c>
@@ -1895,37 +1940,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:25">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1478</v>
       </c>
     </row>
-    <row r="116" spans="1:25">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1479</v>
       </c>
     </row>
-    <row r="117" spans="1:25">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1480</v>
       </c>
     </row>
-    <row r="118" spans="1:25">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1481</v>
       </c>
     </row>
-    <row r="119" spans="1:25">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1482</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1483</v>
       </c>
     </row>
-    <row r="121" spans="1:25">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1484</v>
       </c>
@@ -1942,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:25">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1485</v>
       </c>
@@ -1950,17 +1995,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:25">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1486</v>
       </c>
     </row>
-    <row r="124" spans="1:25">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1487</v>
       </c>
     </row>
-    <row r="125" spans="1:25">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1488</v>
       </c>
@@ -1968,17 +2013,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:25">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1489</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1490</v>
       </c>
     </row>
-    <row r="128" spans="1:25">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1491</v>
       </c>
@@ -1992,12 +2037,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:93">
+    <row r="129" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1492</v>
       </c>
     </row>
-    <row r="130" spans="1:93">
+    <row r="130" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1493</v>
       </c>
@@ -2008,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:93">
+    <row r="131" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1494</v>
       </c>
@@ -2028,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:93">
+    <row r="132" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1495</v>
       </c>
@@ -2039,12 +2084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:93">
+    <row r="133" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1496</v>
       </c>
     </row>
-    <row r="134" spans="1:93">
+    <row r="134" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1497</v>
       </c>
@@ -2055,7 +2100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:93">
+    <row r="135" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1498</v>
       </c>
@@ -2066,12 +2111,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:93">
+    <row r="136" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1499</v>
       </c>
     </row>
-    <row r="137" spans="1:93">
+    <row r="137" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1500</v>
       </c>
@@ -2079,32 +2124,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:93">
+    <row r="138" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1501</v>
       </c>
     </row>
-    <row r="139" spans="1:93">
+    <row r="139" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1502</v>
       </c>
     </row>
-    <row r="140" spans="1:93">
+    <row r="140" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1503</v>
       </c>
     </row>
-    <row r="141" spans="1:93">
+    <row r="141" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1504</v>
       </c>
     </row>
-    <row r="142" spans="1:93">
+    <row r="142" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1505</v>
       </c>
     </row>
-    <row r="143" spans="1:93">
+    <row r="143" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1506</v>
       </c>
@@ -2112,12 +2157,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:93">
+    <row r="144" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1507</v>
       </c>
     </row>
-    <row r="145" spans="1:94">
+    <row r="145" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1508</v>
       </c>
@@ -2128,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:94">
+    <row r="146" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1509</v>
       </c>
@@ -2148,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:94">
+    <row r="147" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1510</v>
       </c>
@@ -2156,12 +2201,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:94">
+    <row r="148" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1511</v>
       </c>
     </row>
-    <row r="149" spans="1:94">
+    <row r="149" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1512</v>
       </c>
@@ -2172,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:94">
+    <row r="150" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1513</v>
       </c>
@@ -2213,12 +2258,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:94">
+    <row r="151" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1514</v>
       </c>
     </row>
-    <row r="152" spans="1:94">
+    <row r="152" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1515</v>
       </c>
@@ -2226,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:94">
+    <row r="153" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1516</v>
       </c>
@@ -2234,12 +2279,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:94">
+    <row r="154" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1517</v>
       </c>
     </row>
-    <row r="155" spans="1:94">
+    <row r="155" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1518</v>
       </c>
@@ -2247,12 +2292,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:94">
+    <row r="156" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1519</v>
       </c>
     </row>
-    <row r="157" spans="1:94">
+    <row r="157" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1520</v>
       </c>
@@ -2266,17 +2311,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:94">
+    <row r="158" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1521</v>
       </c>
     </row>
-    <row r="159" spans="1:94">
+    <row r="159" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1522</v>
       </c>
     </row>
-    <row r="160" spans="1:94">
+    <row r="160" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1523</v>
       </c>
@@ -2290,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:91">
+    <row r="161" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1524</v>
       </c>
@@ -2298,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:91">
+    <row r="162" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1525</v>
       </c>
@@ -2306,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:91">
+    <row r="163" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1526</v>
       </c>
@@ -2320,32 +2365,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:91">
+    <row r="164" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1527</v>
       </c>
     </row>
-    <row r="165" spans="1:91">
+    <row r="165" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1528</v>
       </c>
     </row>
-    <row r="166" spans="1:91">
+    <row r="166" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1529</v>
       </c>
     </row>
-    <row r="167" spans="1:91">
+    <row r="167" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1530</v>
       </c>
     </row>
-    <row r="168" spans="1:91">
+    <row r="168" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1531</v>
       </c>
     </row>
-    <row r="169" spans="1:91">
+    <row r="169" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1532</v>
       </c>
@@ -2359,7 +2404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:91">
+    <row r="170" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1533</v>
       </c>
@@ -2367,22 +2412,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:91">
+    <row r="171" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1534</v>
       </c>
     </row>
-    <row r="172" spans="1:91">
+    <row r="172" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1535</v>
       </c>
     </row>
-    <row r="173" spans="1:91">
+    <row r="173" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1536</v>
       </c>
     </row>
-    <row r="174" spans="1:91">
+    <row r="174" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1537</v>
       </c>
@@ -2390,12 +2435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:91">
+    <row r="175" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1538</v>
       </c>
     </row>
-    <row r="176" spans="1:91">
+    <row r="176" spans="1:91" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1539</v>
       </c>
@@ -2403,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:95">
+    <row r="177" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1540</v>
       </c>
@@ -2411,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:95">
+    <row r="178" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1541</v>
       </c>
@@ -2419,12 +2464,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:95">
+    <row r="179" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1542</v>
       </c>
     </row>
-    <row r="180" spans="1:95">
+    <row r="180" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1543</v>
       </c>
@@ -2432,12 +2477,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:95">
+    <row r="181" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1544</v>
       </c>
     </row>
-    <row r="182" spans="1:95">
+    <row r="182" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1545</v>
       </c>
@@ -2454,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:95">
+    <row r="183" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1546</v>
       </c>
@@ -2462,17 +2507,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:95">
+    <row r="184" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1547</v>
       </c>
     </row>
-    <row r="185" spans="1:95">
+    <row r="185" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1548</v>
       </c>
     </row>
-    <row r="186" spans="1:95">
+    <row r="186" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1549</v>
       </c>
@@ -2480,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:95">
+    <row r="187" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1550</v>
       </c>
@@ -2494,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:95">
+    <row r="188" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1551</v>
       </c>
@@ -2502,12 +2547,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:95">
+    <row r="189" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1552</v>
       </c>
     </row>
-    <row r="190" spans="1:95">
+    <row r="190" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1553</v>
       </c>
@@ -2515,22 +2560,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:95">
+    <row r="191" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1554</v>
       </c>
     </row>
-    <row r="192" spans="1:95">
+    <row r="192" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1555</v>
       </c>
     </row>
-    <row r="193" spans="1:92">
+    <row r="193" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1556</v>
       </c>
     </row>
-    <row r="194" spans="1:92">
+    <row r="194" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1557</v>
       </c>
@@ -2538,17 +2583,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:92">
+    <row r="195" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1558</v>
       </c>
     </row>
-    <row r="196" spans="1:92">
+    <row r="196" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1559</v>
       </c>
     </row>
-    <row r="197" spans="1:92">
+    <row r="197" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1560</v>
       </c>
@@ -2577,7 +2622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:92">
+    <row r="198" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1561</v>
       </c>
@@ -2591,12 +2636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:92">
+    <row r="199" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1562</v>
       </c>
     </row>
-    <row r="200" spans="1:92">
+    <row r="200" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1563</v>
       </c>
@@ -2607,7 +2652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:92">
+    <row r="201" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1564</v>
       </c>
@@ -2615,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:92">
+    <row r="202" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1565</v>
       </c>
@@ -2626,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:92">
+    <row r="203" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1566</v>
       </c>
@@ -2634,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:92">
+    <row r="204" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1567</v>
       </c>
@@ -2648,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:92">
+    <row r="205" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1568</v>
       </c>
@@ -2656,7 +2701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:92">
+    <row r="206" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1569</v>
       </c>
@@ -2664,12 +2709,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:92">
+    <row r="207" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1570</v>
       </c>
     </row>
-    <row r="208" spans="1:92">
+    <row r="208" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1571</v>
       </c>
@@ -2680,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:94">
+    <row r="209" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1572</v>
       </c>
@@ -2691,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:94">
+    <row r="210" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1573</v>
       </c>
@@ -2702,12 +2747,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:94">
+    <row r="211" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1574</v>
       </c>
     </row>
-    <row r="212" spans="1:94">
+    <row r="212" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1575</v>
       </c>
@@ -2715,12 +2760,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:94">
+    <row r="213" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1576</v>
       </c>
     </row>
-    <row r="214" spans="1:94">
+    <row r="214" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1577</v>
       </c>
@@ -2728,17 +2773,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:94">
+    <row r="215" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1578</v>
       </c>
     </row>
-    <row r="216" spans="1:94">
+    <row r="216" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1579</v>
       </c>
     </row>
-    <row r="217" spans="1:94">
+    <row r="217" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1580</v>
       </c>
@@ -2749,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:94">
+    <row r="218" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1581</v>
       </c>
@@ -2757,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:94">
+    <row r="219" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1582</v>
       </c>
@@ -2765,27 +2810,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:94">
+    <row r="220" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1583</v>
       </c>
     </row>
-    <row r="221" spans="1:94">
+    <row r="221" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1584</v>
       </c>
     </row>
-    <row r="222" spans="1:94">
+    <row r="222" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1585</v>
       </c>
     </row>
-    <row r="223" spans="1:94">
+    <row r="223" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1586</v>
       </c>
     </row>
-    <row r="224" spans="1:94">
+    <row r="224" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1587</v>
       </c>
@@ -2793,12 +2838,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:95">
+    <row r="225" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1588</v>
       </c>
     </row>
-    <row r="226" spans="1:95">
+    <row r="226" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1589</v>
       </c>
@@ -2806,17 +2851,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:95">
+    <row r="227" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1590</v>
       </c>
     </row>
-    <row r="228" spans="1:95">
+    <row r="228" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1591</v>
       </c>
     </row>
-    <row r="229" spans="1:95">
+    <row r="229" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1592</v>
       </c>
@@ -2827,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:95">
+    <row r="230" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1593</v>
       </c>
@@ -2835,12 +2880,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:95">
+    <row r="231" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1594</v>
       </c>
     </row>
-    <row r="232" spans="1:95">
+    <row r="232" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1595</v>
       </c>
@@ -2851,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:95">
+    <row r="233" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1596</v>
       </c>
@@ -2859,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:95">
+    <row r="234" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1597</v>
       </c>
@@ -2870,17 +2915,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:95">
+    <row r="235" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1598</v>
       </c>
     </row>
-    <row r="236" spans="1:95">
+    <row r="236" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1599</v>
       </c>
     </row>
-    <row r="237" spans="1:95">
+    <row r="237" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1600</v>
       </c>
@@ -2888,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:95">
+    <row r="238" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1601</v>
       </c>
@@ -2896,7 +2941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:95">
+    <row r="239" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1602</v>
       </c>
@@ -2904,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:95">
+    <row r="240" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1603</v>
       </c>
@@ -2912,47 +2957,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:49">
+    <row r="241" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1604</v>
       </c>
     </row>
-    <row r="242" spans="1:49">
+    <row r="242" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1605</v>
       </c>
     </row>
-    <row r="243" spans="1:49">
+    <row r="243" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1606</v>
       </c>
     </row>
-    <row r="244" spans="1:49">
+    <row r="244" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1607</v>
       </c>
     </row>
-    <row r="245" spans="1:49">
+    <row r="245" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1608</v>
       </c>
     </row>
-    <row r="246" spans="1:49">
+    <row r="246" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1609</v>
       </c>
     </row>
-    <row r="247" spans="1:49">
+    <row r="247" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1610</v>
       </c>
     </row>
-    <row r="248" spans="1:49">
+    <row r="248" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1611</v>
       </c>
     </row>
-    <row r="249" spans="1:49">
+    <row r="249" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1612</v>
       </c>
@@ -2966,22 +3011,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:49">
+    <row r="250" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1613</v>
       </c>
     </row>
-    <row r="251" spans="1:49">
+    <row r="251" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1614</v>
       </c>
     </row>
-    <row r="252" spans="1:49">
+    <row r="252" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1615</v>
       </c>
     </row>
-    <row r="253" spans="1:49">
+    <row r="253" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1616</v>
       </c>
@@ -2989,22 +3034,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:49">
+    <row r="254" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1617</v>
       </c>
     </row>
-    <row r="255" spans="1:49">
+    <row r="255" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1618</v>
       </c>
     </row>
-    <row r="256" spans="1:49">
+    <row r="256" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1619</v>
       </c>
     </row>
-    <row r="257" spans="1:70">
+    <row r="257" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1620</v>
       </c>
@@ -3030,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:70">
+    <row r="258" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1621</v>
       </c>
@@ -3056,12 +3101,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:70">
+    <row r="259" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1622</v>
       </c>
     </row>
-    <row r="260" spans="1:70">
+    <row r="260" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1623</v>
       </c>
@@ -3072,12 +3117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:70">
+    <row r="261" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1624</v>
       </c>
     </row>
-    <row r="262" spans="1:70">
+    <row r="262" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1625</v>
       </c>
@@ -3085,12 +3130,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:70">
+    <row r="263" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1626</v>
       </c>
     </row>
-    <row r="264" spans="1:70">
+    <row r="264" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1627</v>
       </c>
@@ -3098,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:70">
+    <row r="265" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1628</v>
       </c>
@@ -3127,32 +3172,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:70">
+    <row r="266" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1629</v>
       </c>
     </row>
-    <row r="267" spans="1:70">
+    <row r="267" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1630</v>
       </c>
     </row>
-    <row r="268" spans="1:70">
+    <row r="268" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1631</v>
       </c>
     </row>
-    <row r="269" spans="1:70">
+    <row r="269" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1632</v>
       </c>
     </row>
-    <row r="270" spans="1:70">
+    <row r="270" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1633</v>
       </c>
     </row>
-    <row r="271" spans="1:70">
+    <row r="271" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1634</v>
       </c>
@@ -3163,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:70">
+    <row r="272" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1635</v>
       </c>
@@ -3174,12 +3219,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:96">
+    <row r="273" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1636</v>
       </c>
     </row>
-    <row r="274" spans="1:96">
+    <row r="274" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1637</v>
       </c>
@@ -3190,17 +3235,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:96">
+    <row r="275" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1638</v>
       </c>
     </row>
-    <row r="276" spans="1:96">
+    <row r="276" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1639</v>
       </c>
     </row>
-    <row r="277" spans="1:96">
+    <row r="277" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1640</v>
       </c>
@@ -3214,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:96">
+    <row r="278" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1641</v>
       </c>
@@ -3237,12 +3282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:96">
+    <row r="279" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1642</v>
       </c>
     </row>
-    <row r="280" spans="1:96">
+    <row r="280" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1643</v>
       </c>
@@ -3256,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:96">
+    <row r="281" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1644</v>
       </c>
@@ -3267,12 +3312,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:96">
+    <row r="282" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1645</v>
       </c>
     </row>
-    <row r="283" spans="1:96">
+    <row r="283" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1646</v>
       </c>
@@ -3286,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:96">
+    <row r="284" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1647</v>
       </c>
@@ -3297,7 +3342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:96">
+    <row r="285" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1648</v>
       </c>
@@ -3308,17 +3353,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:96">
+    <row r="286" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1649</v>
       </c>
     </row>
-    <row r="287" spans="1:96">
+    <row r="287" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1650</v>
       </c>
     </row>
-    <row r="288" spans="1:96">
+    <row r="288" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1651</v>
       </c>
@@ -3326,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:95">
+    <row r="289" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1652</v>
       </c>
@@ -3337,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:95">
+    <row r="290" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1653</v>
       </c>
@@ -3366,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:95">
+    <row r="291" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1654</v>
       </c>
@@ -3380,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:95">
+    <row r="292" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1655</v>
       </c>
@@ -3388,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:95">
+    <row r="293" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1656</v>
       </c>
@@ -3396,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:95">
+    <row r="294" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1657</v>
       </c>
@@ -3404,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:95">
+    <row r="295" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1658</v>
       </c>
@@ -3412,7 +3457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:95">
+    <row r="296" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1659</v>
       </c>
@@ -3420,12 +3465,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:95">
+    <row r="297" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1660</v>
       </c>
     </row>
-    <row r="298" spans="1:95">
+    <row r="298" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1661</v>
       </c>
@@ -3442,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:95">
+    <row r="299" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1662</v>
       </c>
@@ -3459,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:95">
+    <row r="300" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1663</v>
       </c>
@@ -3467,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:95">
+    <row r="301" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1664</v>
       </c>
@@ -3475,12 +3520,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:95">
+    <row r="302" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1665</v>
       </c>
     </row>
-    <row r="303" spans="1:95">
+    <row r="303" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1666</v>
       </c>
@@ -3491,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:95">
+    <row r="304" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1667</v>
       </c>
@@ -3502,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:94">
+    <row r="305" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1668</v>
       </c>
@@ -3522,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:94">
+    <row r="306" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1669</v>
       </c>
@@ -3539,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:94">
+    <row r="307" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1670</v>
       </c>
@@ -3607,7 +3652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:94">
+    <row r="308" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1671</v>
       </c>
@@ -3618,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:94">
+    <row r="309" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1672</v>
       </c>
@@ -3629,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:94">
+    <row r="310" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1673</v>
       </c>
@@ -3637,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:94">
+    <row r="311" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1674</v>
       </c>
@@ -3645,12 +3690,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:94">
+    <row r="312" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1675</v>
       </c>
     </row>
-    <row r="313" spans="1:94">
+    <row r="313" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1676</v>
       </c>
@@ -3658,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:94">
+    <row r="314" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1677</v>
       </c>
@@ -3666,12 +3711,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:94">
+    <row r="315" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1678</v>
       </c>
     </row>
-    <row r="316" spans="1:94">
+    <row r="316" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1679</v>
       </c>
@@ -3679,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:94">
+    <row r="317" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1680</v>
       </c>
@@ -3687,17 +3732,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:94">
+    <row r="318" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1681</v>
       </c>
     </row>
-    <row r="319" spans="1:94">
+    <row r="319" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1682</v>
       </c>
     </row>
-    <row r="320" spans="1:94">
+    <row r="320" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1683</v>
       </c>
@@ -3708,17 +3753,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:94">
+    <row r="321" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1684</v>
       </c>
     </row>
-    <row r="322" spans="1:94">
+    <row r="322" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1685</v>
       </c>
     </row>
-    <row r="323" spans="1:94">
+    <row r="323" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1686</v>
       </c>
@@ -3726,17 +3771,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:94">
+    <row r="324" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1687</v>
       </c>
     </row>
-    <row r="325" spans="1:94">
+    <row r="325" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1688</v>
       </c>
     </row>
-    <row r="326" spans="1:94">
+    <row r="326" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1689</v>
       </c>
@@ -3747,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:94">
+    <row r="327" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1690</v>
       </c>
@@ -3755,17 +3800,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:94">
+    <row r="328" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1691</v>
       </c>
     </row>
-    <row r="329" spans="1:94">
+    <row r="329" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1692</v>
       </c>
     </row>
-    <row r="330" spans="1:94">
+    <row r="330" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1693</v>
       </c>
@@ -3776,7 +3821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:94">
+    <row r="331" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1694</v>
       </c>
@@ -3784,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:94">
+    <row r="332" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1695</v>
       </c>
@@ -3792,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:94">
+    <row r="333" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1696</v>
       </c>
@@ -3800,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:94">
+    <row r="334" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1697</v>
       </c>
@@ -3808,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:94">
+    <row r="335" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1698</v>
       </c>
@@ -3816,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:94">
+    <row r="336" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1699</v>
       </c>
@@ -3827,12 +3872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:95">
+    <row r="337" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1700</v>
       </c>
     </row>
-    <row r="338" spans="1:95">
+    <row r="338" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1701</v>
       </c>
@@ -3840,17 +3885,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:95">
+    <row r="339" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1702</v>
       </c>
     </row>
-    <row r="340" spans="1:95">
+    <row r="340" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1703</v>
       </c>
     </row>
-    <row r="341" spans="1:95">
+    <row r="341" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1704</v>
       </c>
@@ -3858,32 +3903,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:95">
+    <row r="342" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1705</v>
       </c>
     </row>
-    <row r="343" spans="1:95">
+    <row r="343" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1706</v>
       </c>
     </row>
-    <row r="344" spans="1:95">
+    <row r="344" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1707</v>
       </c>
     </row>
-    <row r="345" spans="1:95">
+    <row r="345" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1708</v>
       </c>
     </row>
-    <row r="346" spans="1:95">
+    <row r="346" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1709</v>
       </c>
     </row>
-    <row r="347" spans="1:95">
+    <row r="347" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1710</v>
       </c>
@@ -3894,12 +3939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:95">
+    <row r="348" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1711</v>
       </c>
     </row>
-    <row r="349" spans="1:95">
+    <row r="349" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1712</v>
       </c>
@@ -3907,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:95">
+    <row r="350" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1713</v>
       </c>
@@ -3918,7 +3963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:95">
+    <row r="351" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1714</v>
       </c>
@@ -3947,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:95">
+    <row r="352" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1715</v>
       </c>
@@ -3955,17 +4000,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:95">
+    <row r="353" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1716</v>
       </c>
     </row>
-    <row r="354" spans="1:95">
+    <row r="354" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1717</v>
       </c>
     </row>
-    <row r="355" spans="1:95">
+    <row r="355" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1718</v>
       </c>
@@ -3976,12 +4021,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:95">
+    <row r="356" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1719</v>
       </c>
     </row>
-    <row r="357" spans="1:95">
+    <row r="357" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1720</v>
       </c>
@@ -3989,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:95">
+    <row r="358" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1721</v>
       </c>
@@ -3997,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:95">
+    <row r="359" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1722</v>
       </c>
@@ -4005,17 +4050,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:95">
+    <row r="360" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1723</v>
       </c>
     </row>
-    <row r="361" spans="1:95">
+    <row r="361" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1724</v>
       </c>
     </row>
-    <row r="362" spans="1:95">
+    <row r="362" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1725</v>
       </c>
@@ -4023,7 +4068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:95">
+    <row r="363" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1726</v>
       </c>
@@ -4031,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:95">
+    <row r="364" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1727</v>
       </c>
@@ -4039,12 +4084,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:95">
+    <row r="365" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1728</v>
       </c>
     </row>
-    <row r="366" spans="1:95">
+    <row r="366" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1729</v>
       </c>
@@ -4061,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:95">
+    <row r="367" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1730</v>
       </c>
@@ -4069,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:95">
+    <row r="368" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1731</v>
       </c>
@@ -4077,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:95">
+    <row r="369" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1732</v>
       </c>
@@ -4085,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:95">
+    <row r="370" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1733</v>
       </c>
@@ -4093,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:95">
+    <row r="371" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1734</v>
       </c>
@@ -4104,22 +4149,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:95">
+    <row r="372" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1735</v>
       </c>
     </row>
-    <row r="373" spans="1:95">
+    <row r="373" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1736</v>
       </c>
     </row>
-    <row r="374" spans="1:95">
+    <row r="374" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1737</v>
       </c>
     </row>
-    <row r="375" spans="1:95">
+    <row r="375" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1738</v>
       </c>
@@ -4130,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:95">
+    <row r="376" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1739</v>
       </c>
@@ -4144,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:95">
+    <row r="377" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1740</v>
       </c>
@@ -4155,12 +4200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:95">
+    <row r="378" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1741</v>
       </c>
     </row>
-    <row r="379" spans="1:95">
+    <row r="379" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1742</v>
       </c>
@@ -4171,7 +4216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:95">
+    <row r="380" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1743</v>
       </c>
@@ -4188,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:95">
+    <row r="381" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1744</v>
       </c>
@@ -4205,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:95">
+    <row r="382" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1745</v>
       </c>
@@ -4219,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:95">
+    <row r="383" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1746</v>
       </c>
@@ -4242,12 +4287,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:95">
+    <row r="384" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1747</v>
       </c>
     </row>
-    <row r="385" spans="1:82">
+    <row r="385" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1748</v>
       </c>
@@ -4255,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:82">
+    <row r="386" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1749</v>
       </c>
@@ -4263,7 +4308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:82">
+    <row r="387" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1750</v>
       </c>
@@ -4274,7 +4319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:82">
+    <row r="388" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1751</v>
       </c>
@@ -4285,12 +4330,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:82">
+    <row r="389" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1752</v>
       </c>
     </row>
-    <row r="390" spans="1:82">
+    <row r="390" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1753</v>
       </c>
@@ -4298,12 +4343,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:82">
+    <row r="391" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1754</v>
       </c>
     </row>
-    <row r="392" spans="1:82">
+    <row r="392" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1755</v>
       </c>
@@ -4314,17 +4359,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:82">
+    <row r="393" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1756</v>
       </c>
     </row>
-    <row r="394" spans="1:82">
+    <row r="394" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1757</v>
       </c>
     </row>
-    <row r="395" spans="1:82">
+    <row r="395" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1758</v>
       </c>
@@ -4332,7 +4377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:82">
+    <row r="396" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1759</v>
       </c>
@@ -4340,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:82">
+    <row r="397" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1760</v>
       </c>
@@ -4348,22 +4393,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:82">
+    <row r="398" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1761</v>
       </c>
     </row>
-    <row r="399" spans="1:82">
+    <row r="399" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1762</v>
       </c>
     </row>
-    <row r="400" spans="1:82">
+    <row r="400" spans="1:82" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1763</v>
       </c>
     </row>
-    <row r="401" spans="1:96">
+    <row r="401" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1764</v>
       </c>
@@ -4371,12 +4416,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:96">
+    <row r="402" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1765</v>
       </c>
     </row>
-    <row r="403" spans="1:96">
+    <row r="403" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1766</v>
       </c>
@@ -4387,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:96">
+    <row r="404" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1767</v>
       </c>
@@ -4395,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:96">
+    <row r="405" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1768</v>
       </c>
@@ -4409,17 +4454,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:96">
+    <row r="406" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1769</v>
       </c>
     </row>
-    <row r="407" spans="1:96">
+    <row r="407" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1770</v>
       </c>
     </row>
-    <row r="408" spans="1:96">
+    <row r="408" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1771</v>
       </c>
@@ -4427,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:96">
+    <row r="409" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1772</v>
       </c>
@@ -4435,7 +4480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:96">
+    <row r="410" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1773</v>
       </c>
@@ -4443,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:96">
+    <row r="411" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1774</v>
       </c>
@@ -4451,17 +4496,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:96">
+    <row r="412" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1775</v>
       </c>
     </row>
-    <row r="413" spans="1:96">
+    <row r="413" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1776</v>
       </c>
     </row>
-    <row r="414" spans="1:96">
+    <row r="414" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1777</v>
       </c>
@@ -4469,12 +4514,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:96">
+    <row r="415" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1778</v>
       </c>
     </row>
-    <row r="416" spans="1:96">
+    <row r="416" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1779</v>
       </c>
@@ -4482,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:87">
+    <row r="417" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1780</v>
       </c>
@@ -4490,7 +4535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:87">
+    <row r="418" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1781</v>
       </c>
@@ -4498,12 +4543,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:87">
+    <row r="419" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1782</v>
       </c>
     </row>
-    <row r="420" spans="1:87">
+    <row r="420" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1783</v>
       </c>
@@ -4511,17 +4556,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:87">
+    <row r="421" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1784</v>
       </c>
     </row>
-    <row r="422" spans="1:87">
+    <row r="422" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1785</v>
       </c>
     </row>
-    <row r="423" spans="1:87">
+    <row r="423" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1786</v>
       </c>
@@ -4538,17 +4583,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:87">
+    <row r="424" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1787</v>
       </c>
     </row>
-    <row r="425" spans="1:87">
+    <row r="425" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1788</v>
       </c>
     </row>
-    <row r="426" spans="1:87">
+    <row r="426" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1789</v>
       </c>
@@ -4556,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:87">
+    <row r="427" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1790</v>
       </c>
@@ -4579,12 +4624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:87">
+    <row r="428" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1791</v>
       </c>
     </row>
-    <row r="429" spans="1:87">
+    <row r="429" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1792</v>
       </c>
@@ -4595,12 +4640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:87">
+    <row r="430" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1793</v>
       </c>
     </row>
-    <row r="431" spans="1:87">
+    <row r="431" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1794</v>
       </c>
@@ -4608,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:87">
+    <row r="432" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1795</v>
       </c>
@@ -4622,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:77">
+    <row r="433" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1796</v>
       </c>
@@ -4654,12 +4699,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:77">
+    <row r="434" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1797</v>
       </c>
     </row>
-    <row r="435" spans="1:77">
+    <row r="435" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1798</v>
       </c>
@@ -4667,12 +4712,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:77">
+    <row r="436" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1799</v>
       </c>
     </row>
-    <row r="437" spans="1:77">
+    <row r="437" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1800</v>
       </c>
@@ -4698,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:77">
+    <row r="438" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1801</v>
       </c>
@@ -4712,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:77">
+    <row r="439" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1802</v>
       </c>
@@ -4720,27 +4765,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:77">
+    <row r="440" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1803</v>
       </c>
     </row>
-    <row r="441" spans="1:77">
+    <row r="441" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1804</v>
       </c>
     </row>
-    <row r="442" spans="1:77">
+    <row r="442" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1805</v>
       </c>
     </row>
-    <row r="443" spans="1:77">
+    <row r="443" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1806</v>
       </c>
     </row>
-    <row r="444" spans="1:77">
+    <row r="444" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1807</v>
       </c>
@@ -4748,12 +4793,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:77">
+    <row r="445" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1808</v>
       </c>
     </row>
-    <row r="446" spans="1:77">
+    <row r="446" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1809</v>
       </c>
@@ -4770,12 +4815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:77">
+    <row r="447" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1810</v>
       </c>
     </row>
-    <row r="448" spans="1:77">
+    <row r="448" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1811</v>
       </c>
@@ -4786,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:94">
+    <row r="449" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1812</v>
       </c>
@@ -4797,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:94">
+    <row r="450" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1813</v>
       </c>
@@ -4808,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:94">
+    <row r="451" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1814</v>
       </c>
@@ -4831,7 +4876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:94">
+    <row r="452" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1815</v>
       </c>
@@ -4839,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:94">
+    <row r="453" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1816</v>
       </c>
@@ -4865,7 +4910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:94">
+    <row r="454" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1817</v>
       </c>
@@ -4876,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:94">
+    <row r="455" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1818</v>
       </c>
@@ -4890,7 +4935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:94">
+    <row r="456" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1819</v>
       </c>
@@ -4904,12 +4949,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:94">
+    <row r="457" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1820</v>
       </c>
     </row>
-    <row r="458" spans="1:94">
+    <row r="458" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1821</v>
       </c>
@@ -4917,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:94">
+    <row r="459" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1822</v>
       </c>
@@ -4931,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:94">
+    <row r="460" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1823</v>
       </c>
@@ -4945,12 +4990,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:94">
+    <row r="461" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1824</v>
       </c>
     </row>
-    <row r="462" spans="1:94" ht="13.05" customHeight="1">
+    <row r="462" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1825</v>
       </c>
@@ -4970,37 +5015,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:94">
+    <row r="463" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1826</v>
       </c>
     </row>
-    <row r="464" spans="1:94">
+    <row r="464" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1827</v>
       </c>
     </row>
-    <row r="465" spans="1:95">
+    <row r="465" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1828</v>
       </c>
     </row>
-    <row r="466" spans="1:95">
+    <row r="466" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1829</v>
       </c>
     </row>
-    <row r="467" spans="1:95">
+    <row r="467" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1830</v>
       </c>
     </row>
-    <row r="468" spans="1:95">
+    <row r="468" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1831</v>
       </c>
     </row>
-    <row r="469" spans="1:95">
+    <row r="469" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1832</v>
       </c>
@@ -5020,12 +5065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:95">
+    <row r="470" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1833</v>
       </c>
     </row>
-    <row r="471" spans="1:95">
+    <row r="471" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1834</v>
       </c>
@@ -5036,12 +5081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:95">
+    <row r="472" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1835</v>
       </c>
     </row>
-    <row r="473" spans="1:95">
+    <row r="473" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>1836</v>
       </c>
@@ -5049,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:95">
+    <row r="474" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1837</v>
       </c>
@@ -5057,12 +5102,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:95">
+    <row r="475" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1838</v>
       </c>
     </row>
-    <row r="476" spans="1:95">
+    <row r="476" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1839</v>
       </c>
@@ -5073,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:95">
+    <row r="477" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1840</v>
       </c>
@@ -5084,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:95">
+    <row r="478" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1841</v>
       </c>
@@ -5125,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:95">
+    <row r="479" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1842</v>
       </c>
@@ -5136,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:95">
+    <row r="480" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1843</v>
       </c>
@@ -5153,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:87">
+    <row r="481" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1844</v>
       </c>
@@ -5161,7 +5206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:87">
+    <row r="482" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1845</v>
       </c>
@@ -5175,7 +5220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:87">
+    <row r="483" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1846</v>
       </c>
@@ -5186,7 +5231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:87">
+    <row r="484" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1847</v>
       </c>
@@ -5194,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:87">
+    <row r="485" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1848</v>
       </c>
@@ -5205,7 +5250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:87">
+    <row r="486" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1849</v>
       </c>
@@ -5219,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:87">
+    <row r="487" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1850</v>
       </c>
@@ -5230,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:87">
+    <row r="488" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1851</v>
       </c>
@@ -5247,7 +5292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:87">
+    <row r="489" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1852</v>
       </c>
@@ -5258,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:87">
+    <row r="490" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1853</v>
       </c>
@@ -5284,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:87">
+    <row r="491" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1854</v>
       </c>
@@ -5292,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:87">
+    <row r="492" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1855</v>
       </c>
@@ -5306,7 +5351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:87">
+    <row r="493" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1856</v>
       </c>
@@ -5320,7 +5365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:87">
+    <row r="494" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1857</v>
       </c>
@@ -5334,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:87">
+    <row r="495" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1858</v>
       </c>
@@ -5348,7 +5393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:87">
+    <row r="496" spans="1:87" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1859</v>
       </c>
@@ -5371,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:95">
+    <row r="497" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1860</v>
       </c>
@@ -5397,7 +5442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:95">
+    <row r="498" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1861</v>
       </c>
@@ -5477,7 +5522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:95">
+    <row r="499" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1862</v>
       </c>
@@ -5536,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:95">
+    <row r="500" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1863</v>
       </c>
@@ -5562,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:95">
+    <row r="501" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1864</v>
       </c>
@@ -5609,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:95">
+    <row r="502" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1865</v>
       </c>
@@ -5638,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:95">
+    <row r="503" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1866</v>
       </c>
@@ -5655,12 +5700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:95">
+    <row r="504" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1867</v>
       </c>
     </row>
-    <row r="505" spans="1:95">
+    <row r="505" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>1868</v>
       </c>
@@ -5668,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:95">
+    <row r="506" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1869</v>
       </c>
@@ -5685,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:95">
+    <row r="507" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1870</v>
       </c>
@@ -5738,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:95">
+    <row r="508" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1871</v>
       </c>
@@ -5767,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:95">
+    <row r="509" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1872</v>
       </c>
@@ -5793,12 +5838,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:95">
+    <row r="510" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1873</v>
       </c>
     </row>
-    <row r="511" spans="1:95">
+    <row r="511" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1874</v>
       </c>
@@ -5809,17 +5854,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:95">
+    <row r="512" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1875</v>
       </c>
     </row>
-    <row r="513" spans="1:76">
+    <row r="513" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>1876</v>
       </c>
     </row>
-    <row r="514" spans="1:76">
+    <row r="514" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1877</v>
       </c>
@@ -5827,12 +5872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:76">
+    <row r="515" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1878</v>
       </c>
     </row>
-    <row r="516" spans="1:76">
+    <row r="516" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1879</v>
       </c>
@@ -5840,22 +5885,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:76">
+    <row r="517" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>1880</v>
       </c>
     </row>
-    <row r="518" spans="1:76">
+    <row r="518" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1881</v>
       </c>
     </row>
-    <row r="519" spans="1:76">
+    <row r="519" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1882</v>
       </c>
     </row>
-    <row r="520" spans="1:76">
+    <row r="520" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1883</v>
       </c>
@@ -5863,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:76">
+    <row r="521" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1884</v>
       </c>
@@ -5871,12 +5916,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:76">
+    <row r="522" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>1885</v>
       </c>
     </row>
-    <row r="523" spans="1:76">
+    <row r="523" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1886</v>
       </c>
@@ -5884,22 +5929,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:76">
+    <row r="524" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1887</v>
       </c>
     </row>
-    <row r="525" spans="1:76">
+    <row r="525" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1888</v>
       </c>
     </row>
-    <row r="526" spans="1:76">
+    <row r="526" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>1889</v>
       </c>
     </row>
-    <row r="527" spans="1:76">
+    <row r="527" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>1890</v>
       </c>
@@ -5907,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:76">
+    <row r="528" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1891</v>
       </c>
@@ -5915,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:97">
+    <row r="529" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1892</v>
       </c>
@@ -5929,7 +5974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:97">
+    <row r="530" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1893</v>
       </c>
@@ -5937,12 +5982,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:97">
+    <row r="531" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1894</v>
       </c>
     </row>
-    <row r="532" spans="1:97">
+    <row r="532" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1895</v>
       </c>
@@ -5950,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:97">
+    <row r="533" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>1896</v>
       </c>
@@ -5958,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:97">
+    <row r="534" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>1897</v>
       </c>
@@ -5966,12 +6011,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:97">
+    <row r="535" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1898</v>
       </c>
     </row>
-    <row r="536" spans="1:97">
+    <row r="536" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1899</v>
       </c>
@@ -5979,17 +6024,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:97">
+    <row r="537" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1900</v>
       </c>
     </row>
-    <row r="538" spans="1:97">
+    <row r="538" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1901</v>
       </c>
     </row>
-    <row r="539" spans="1:97">
+    <row r="539" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1902</v>
       </c>
@@ -5997,17 +6042,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:97">
+    <row r="540" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>1903</v>
       </c>
     </row>
-    <row r="541" spans="1:97">
+    <row r="541" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1904</v>
       </c>
     </row>
-    <row r="542" spans="1:97">
+    <row r="542" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1905</v>
       </c>
@@ -6015,7 +6060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:97">
+    <row r="543" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1906</v>
       </c>
@@ -6023,12 +6068,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:97">
+    <row r="544" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1907</v>
       </c>
     </row>
-    <row r="545" spans="1:33">
+    <row r="545" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1908</v>
       </c>
@@ -6036,12 +6081,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:33">
+    <row r="546" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1909</v>
       </c>
     </row>
-    <row r="547" spans="1:33">
+    <row r="547" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1910</v>
       </c>
@@ -6049,26 +6094,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:33">
+    <row r="548" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>1911</v>
       </c>
     </row>
-    <row r="549" spans="1:33">
+    <row r="549" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1912</v>
       </c>
     </row>
-    <row r="550" spans="1:33">
-      <c r="A550">
-        <v>1913</v>
-      </c>
-    </row>
-    <row r="551" spans="1:33" s="2" customFormat="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A551:XFD551"/>
-  </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>